--- a/docs/标签规则/规则定义/关键字.xlsx
+++ b/docs/标签规则/规则定义/关键字.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataKiller\DataKiller 1.0\docs\标签规则\规则定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02660E2-9C11-49AA-B7AF-B20B781DE2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C975613B-D9F4-43E6-BA8E-FA096C143920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4448" yWindow="2565" windowWidth="14400" windowHeight="8722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3173" yWindow="555" windowWidth="14400" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentManualCount="16"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,19 +31,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关键字是能够体现这段话的主旨、重点、观点或主要信息的词汇或短语。这里是针对每一个问询函问题提取关键字，且同一个问题可以提取多个不同的关键字标签，每个标签必须包含三个层级，若无法继续深挖至第三层层级，那么第三层级与第二层级一致。具体判断逻辑如下：
-（1）一级标签判断（三表科目、财务经营分析、特定交易事项类）
-1）若问题中涉及到资产负债表、利润表、现金流量表中的任一会计科目，则被打上“三表科目”一级标签；
-2）若问题中涉及与财务经营分析相关的内容，财务经营分析具体指监管机构对企业财务状况、经营成果、未来经济前景的问询，包括偿债能力、盈利能力、营运能力、成长能力、持续经营能力、研发能力等，则被打上“财务经营分析”一级标签
-3）若问题是关于某个特定交易事项，如业绩承诺、债务重组、股利分配、资金占用、事务所变更、关联交易等“则被打上“特定交易事项类”一级标签
-（2）二级标签判断
-1）“三表科目”一级标签下根据问询问题涉及的具体科目打二级标签，如“三表科目-应收账款”（二级标签选择范围：三大财务报表一级会计科目名称）
-2）“财务经营分析”一级标签下根据问询问题内容打二级标签，如”财务经营分析-偿债能力“（二级标签选择范围：偿债能力、毛利率、持续经营能力、研发水平、融资能力、内部控制、主要客户及供应商、其他）
-3）“特定交易事项类”一级标签下根据问询问题涉及的具体事项打二级标签，如”特定交易事项类-业绩承诺”（二级标签选择范围：业绩承诺、债务重组、股利分配、资金占用、事务所变更、会计政策变更、会计估计变更、关联交易、合同纠纷、违规担保、其他）
-（2）三级标签判断
-1）“三表科目”一级标签——二级标签下，分析问询问题再细化形成三级标签，如”三表科目-应收账款-应收账款坏账计提“
-2）“财务经营分析”一级标签——二级标签下，分析问询问题再细化形成三级标签，如”财务经营分析-偿债能力-债券展期“
-3）“特定交易事项类”一级标签——二级标签下，分析问询问题再细化形成三级标签，如”特定交易事项类-业绩承诺-业绩承诺未完成”</t>
+    <t>"二级关键字是能够体现这段话的主旨、重点、观点或主要信息的词汇或短语。这里是针对每一个问询函问题提取关键字，且同一个问题可以提取多个不同的关键字标签。具体判断如下：
+如果问题涉及下述关键字：三表科目名称
+货币资金
+交易性金融资产
+衍生金融资产
+应收票据
+应收账款
+应收款项融资
+预付款项
+应收股利
+应收利息
+其他应收款
+存货
+合同资产
+持有待售资产
+一年内到期的非流动资产
+其他流动资产
+债权投资
+其他债权投资
+其他权益工具投资
+其他非流动金融资产
+可供出售金融资产
+持有至到期投资
+长期应收款
+长期股权投资
+投资性房地产
+固定资产
+在建工程
+生产性生物资产
+油气资产
+使用权资产
+无形资产
+开发支出
+商誉
+长期待摊费用
+递延所得税资产
+其他非流动资产
+资产总计
+短期借款
+交易性金融负债
+衍生金融负债
+应付票据
+应付账款
+预收账款
+合同负债
+应付职工薪酬
+应交税费
+应付利息
+应付股利
+其他应付款
+持有待售负债
+一年内到期的非流动负债
+其他流动负债
+长期借款
+应付债券
+租赁负债
+长期应付款
+预计负债
+递延所得税负债
+递延收益
+其他非流动负债
+负债合计
+实收资本(或股本)
+其他权益工具
+优先股
+永续债
+资本公积
+库存股
+其他综合收益
+专项储备
+盈余公积
+未分配利润
+外币报表折算差额
+归属于母公司所有者权益（或股东权益）合计
+少数股东权益
+所有者权益（或股东权益）合计
+营业总收入
+营业收入
+营业总成本
+营业成本
+税金及附加
+销售费用
+管理费用
+研发费用
+财务费用
+利息费用
+利息收入
+其他收益
+投资收益
+汇兑收益
+净敞口套期收益
+公允价值变动收益
+资产减值损失
+信用减值损失
+资产处置收益
+营业利润
+营业外收入
+营业外支出
+利润总额
+所得税费用
+净利润
+持续经营净利润
+终止经营净利润
+少数股东损益
+归属于母公司股东的净利润
+其他综合收益
+综合收益总额
+归属于母公司所有者的综合收益总额
+归属于少数股东的综合收益总额
+每股收益
+基本每股收益
+稀释每股收益
+销售商品、提供劳务收到的现金
+收到的税费返还
+收到其他与经营活动有关的现金
+经营活动现金流入小计
+购买商品、接受劳务支付的现金
+支付给职工以及为职工支付的现金
+支付的各项税费
+支付其他与经营活动有关的现金
+经营活动现金流出小计
+经营活动产生的现金流量净额
+收回投资收到的现金
+取得投资收益收到的现金
+处置固定资产、无形资产和其他长期资产收回的现金净额
+处置子公司及其他营业单位收到的现金净额
+收到其他与投资活动有关的现金
+投资活动现金流入小计
+购建固定资产、无形资产和其他长期资产支付的现金
+投资支付的现金
+取得子公司及其他营业单位支付的现金净额
+支付的其他与投资活动有关的现金
+投资活动现金流出小计
+投资活动产生的现金流量净额
+吸收投资收到的现金
+取得借款收到的现金
+收到其他与筹资活动有关的现金
+发行债券收到的现金
+筹资活动现金流入小计
+偿还债务支付的现金
+分配股利、利润或偿付利息支付的现金
+支付其他与筹资活动有关的现金
+筹资活动现金流出小计
+筹资活动产生的现金流量净额
+汇率变动对现金的影响
+现金及现金等价物净增加额
+期初现金及现金等价物余额
+期末现金及现金等价物余额、偿债能力、毛利率、持续经营能力、研发水平、融资能力、内部控制、主要客户及供应商、业绩承诺、债务重组、股利分配、股权质押、资金占用、事务所变更、会计政策变更、会计估计变更、会计差错更正、关联交易、合同纠纷、违规担保。则打上相应的关键字标签。如果问询问题不涉及上述关键字，则打上”其他“这个标签。"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -396,8 +531,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
